--- a/aoiConditions/train1P2Block2.xlsx
+++ b/aoiConditions/train1P2Block2.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
+    <t>trainingaudio/25_tapapi1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/10_tokiti1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/94_kipipi1.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/18_popata2.wav</t>
   </si>
   <si>
-    <t>trainingaudio/22_kakoki1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/02_pitito3.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/25_tapapi1.wav</t>
+    <t>pngimages/25_apple.png</t>
+  </si>
+  <si>
+    <t>pngimages/10_backpack.png</t>
+  </si>
+  <si>
+    <t>pngimages/94_house.png</t>
   </si>
   <si>
     <t>pngimages/18_donut.png</t>
-  </si>
-  <si>
-    <t>pngimages/22_egg.png</t>
-  </si>
-  <si>
-    <t>pngimages/02_pallet.png</t>
-  </si>
-  <si>
-    <t>pngimages/25_apple.png</t>
   </si>
 </sst>
 </file>

--- a/aoiConditions/train1P2Block2.xlsx
+++ b/aoiConditions/train1P2Block2.xlsx
@@ -22,28 +22,28 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/25_tapapi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/10_tokiti1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/94_kipipi1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/18_popata2.wav</t>
-  </si>
-  <si>
-    <t>pngimages/25_apple.png</t>
-  </si>
-  <si>
-    <t>pngimages/10_backpack.png</t>
-  </si>
-  <si>
-    <t>pngimages/94_house.png</t>
-  </si>
-  <si>
-    <t>pngimages/18_donut.png</t>
+    <t>trainingaudio/16_kokapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.wav</t>
+  </si>
+  <si>
+    <t>pngimages/16_icecream.png</t>
+  </si>
+  <si>
+    <t>pngimages/26_pineapple.png</t>
+  </si>
+  <si>
+    <t>pngimages/17_cracker.png</t>
+  </si>
+  <si>
+    <t>pngimages/11_compass.png</t>
   </si>
 </sst>
 </file>

--- a/aoiConditions/train1P2Block2.xlsx
+++ b/aoiConditions/train1P2Block2.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/16_kokapi2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.wav</t>
+    <t>trainingaudio/16_kokapi2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.mp3</t>
   </si>
   <si>
     <t>pngimages/16_icecream.png</t>

--- a/aoiConditions/train1P2Block2.xlsx
+++ b/aoiConditions/train1P2Block2.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/16_kokapi2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.mp3</t>
+    <t>trainingaudio/16_kokapi2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.ogg</t>
   </si>
   <si>
     <t>pngimages/16_icecream.png</t>

--- a/aoiConditions/train1P2Block2.xlsx
+++ b/aoiConditions/train1P2Block2.xlsx
@@ -22,16 +22,16 @@
     <t>imageLoc</t>
   </si>
   <si>
-    <t>trainingaudio/16_kokapi2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/26_kapako1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/17_kotako2.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/11_tokiko1.ogg</t>
+    <t>trainingaudio/16_kokapi2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/26_kapako1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/17_kotako2.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/11_tokiko1.wav</t>
   </si>
   <si>
     <t>pngimages/16_icecream.png</t>
